--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220428_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220428_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="272">
   <si>
     <t>사이트</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>매직스트로베리 사운드</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>예스아이엠엔터테인먼트</t>
@@ -2925,6 +2928,12 @@
       <c r="F67" t="s">
         <v>213</v>
       </c>
+      <c r="G67" t="s">
+        <v>264</v>
+      </c>
+      <c r="H67" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
@@ -3024,7 +3033,7 @@
         <v>217</v>
       </c>
       <c r="G71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H71" t="s">
         <v>244</v>
@@ -3050,7 +3059,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H72" t="s">
         <v>244</v>
@@ -3127,6 +3136,12 @@
       <c r="F75" t="s">
         <v>83</v>
       </c>
+      <c r="G75" t="s">
+        <v>247</v>
+      </c>
+      <c r="H75" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -3174,7 +3189,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H77" t="s">
         <v>244</v>
@@ -3303,6 +3318,12 @@
       <c r="F82" t="s">
         <v>223</v>
       </c>
+      <c r="G82" t="s">
+        <v>264</v>
+      </c>
+      <c r="H82" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
@@ -3480,7 +3501,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H89" t="s">
         <v>244</v>
@@ -3506,7 +3527,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H90" t="s">
         <v>244</v>
@@ -3584,7 +3605,7 @@
         <v>230</v>
       </c>
       <c r="G93" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
@@ -3636,7 +3657,7 @@
         <v>232</v>
       </c>
       <c r="G95" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H95" t="s">
         <v>244</v>
@@ -3662,7 +3683,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H96" t="s">
         <v>244</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220428_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220428_110201.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-28</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220428_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220428_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="271">
   <si>
     <t>사이트</t>
   </si>
@@ -788,9 +788,6 @@
   </si>
   <si>
     <t>메이저9</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>빅히트</t>
@@ -2409,7 +2406,7 @@
         <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H47" t="s">
         <v>244</v>
@@ -2461,10 +2458,10 @@
         <v>199</v>
       </c>
       <c r="G49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2487,7 +2484,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
         <v>244</v>
@@ -2539,7 +2536,7 @@
         <v>201</v>
       </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H52" t="s">
         <v>244</v>
@@ -2565,10 +2562,10 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2617,7 +2614,7 @@
         <v>203</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H55" t="s">
         <v>244</v>
@@ -2669,7 +2666,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H57" t="s">
         <v>244</v>
@@ -2721,7 +2718,7 @@
         <v>206</v>
       </c>
       <c r="G59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H59" t="s">
         <v>244</v>
@@ -2851,7 +2848,7 @@
         <v>210</v>
       </c>
       <c r="G64" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H64" t="s">
         <v>244</v>
@@ -2903,10 +2900,10 @@
         <v>212</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2929,7 +2926,7 @@
         <v>213</v>
       </c>
       <c r="G67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H67" t="s">
         <v>244</v>
@@ -3007,7 +3004,7 @@
         <v>216</v>
       </c>
       <c r="G70" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H70" t="s">
         <v>244</v>
@@ -3033,7 +3030,7 @@
         <v>217</v>
       </c>
       <c r="G71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H71" t="s">
         <v>244</v>
@@ -3059,7 +3056,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H72" t="s">
         <v>244</v>
@@ -3189,7 +3186,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
         <v>244</v>
@@ -3215,7 +3212,7 @@
         <v>196</v>
       </c>
       <c r="G78" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H78" t="s">
         <v>244</v>
@@ -3319,7 +3316,7 @@
         <v>223</v>
       </c>
       <c r="G82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H82" t="s">
         <v>244</v>
@@ -3501,7 +3498,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H89" t="s">
         <v>244</v>
@@ -3527,7 +3524,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H90" t="s">
         <v>244</v>
@@ -3579,7 +3576,7 @@
         <v>229</v>
       </c>
       <c r="G92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H92" t="s">
         <v>244</v>
@@ -3605,7 +3602,7 @@
         <v>230</v>
       </c>
       <c r="G93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
@@ -3657,7 +3654,7 @@
         <v>232</v>
       </c>
       <c r="G95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H95" t="s">
         <v>244</v>
@@ -3683,7 +3680,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H96" t="s">
         <v>244</v>
